--- a/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
+++ b/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
@@ -1,150 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>501019</t>
-  </si>
-  <si>
-    <t>920008</t>
-  </si>
-  <si>
-    <t>920928</t>
-  </si>
-  <si>
-    <t>011685</t>
-  </si>
-  <si>
-    <t>011686</t>
-  </si>
-  <si>
-    <t>国泰国证航天军工指数（LOF）</t>
-  </si>
-  <si>
-    <t>中金进取回报灵活配置混合A</t>
-  </si>
-  <si>
-    <t>中金进取回报灵活配置混合C</t>
-  </si>
-  <si>
-    <t>创金合信先进装备股票A</t>
-  </si>
-  <si>
-    <t>创金合信先进装备股票C</t>
-  </si>
-  <si>
-    <t>15.74</t>
-  </si>
-  <si>
-    <t>7.42</t>
-  </si>
-  <si>
-    <t>1.84</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>92.52</t>
-  </si>
-  <si>
-    <t>24.40</t>
-  </si>
-  <si>
-    <t>82.52</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>8.89</t>
-  </si>
-  <si>
-    <t>0.4974</t>
-  </si>
-  <si>
-    <t>0.1098</t>
-  </si>
-  <si>
-    <t>0.0272</t>
-  </si>
-  <si>
-    <t>0.0160</t>
-  </si>
-  <si>
-    <t>0.0053</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,167 +446,1663 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9168</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6129</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4591</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
+++ b/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -2100,6 +2100,74 @@
       </c>
       <c r="H37" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
+++ b/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,7 +2114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2124,17 +2125,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2144,14 +2165,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.09</v>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2160,13 +2203,2734 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0489</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0071</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8797</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7561</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6820</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4723</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
+++ b/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4861,7 +4862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4872,17 +4873,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4892,14 +4913,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.68</v>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4908,14 +4951,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.09</v>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4924,13 +4989,1617 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7728</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
+++ b/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6514,7 +6515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6525,17 +6526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6545,14 +6566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.609999999999999</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6561,14 +6604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.68</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6577,14 +6642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.09</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6593,13 +6680,2275 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7335</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0820</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0621</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0316</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8430</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6963</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5990</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5666</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5529</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
+++ b/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D2" t="n">
-        <v>27.19</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>8.609999999999999</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>21.68</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>14.09</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -566,6 +583,4993 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3917</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9394</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8424</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6790</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5986</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4146</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4133</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2951</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2391</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0269</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7429</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6984</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6300</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6285</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5682</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5258</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5076</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4847</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4425</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010688</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010689</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2897,7 +7901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4549,7 +9553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7296,7 +12300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8711,7 +13715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
+++ b/数据整理/stocks/A股/上证主板/600150-中国船舶.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D2" t="n">
-        <v>45.1</v>
+        <v>44.35</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>27.19</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>8.609999999999999</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>21.68</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>14.09</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -583,6 +600,5602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H147"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>126.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9196</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9181</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>44.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1093</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9111</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8931</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7269</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6483</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6357</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5703</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4745</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012014</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信聚润6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>39.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信聚润6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>42.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>42.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银新得益混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013701</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商稳锦混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>77.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>43.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>43.13</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015104</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博道研究恒选混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>39.25</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013702</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商稳锦混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>015105</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博道研究恒选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5569,7 +11182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7901,7 +13514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9553,7 +15166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12300,7 +17913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13715,7 +19328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
